--- a/week2.xlsx
+++ b/week2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20388"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ow200\Desktop\redBookWord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46BF0233-E06B-4DD7-87CC-6634128CCDCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371C13DA-8C09-491D-92C3-5A0F671B94C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>manipulate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,134 @@
   </si>
   <si>
     <t>强迫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eliminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排除】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abolish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有能力的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeptical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀疑的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sketch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素描</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根本的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客观的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步伐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -789,6 +917,134 @@
         <v>52</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/week2.xlsx
+++ b/week2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ow200\Desktop\redBookWord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371C13DA-8C09-491D-92C3-5A0F671B94C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298E669-9A84-43CF-BD91-B4A533622B67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="1635" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +388,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -411,8 +418,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -695,11 +703,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -749,11 +760,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -765,11 +776,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -813,19 +824,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -837,19 +848,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -893,35 +904,35 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -965,11 +976,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
     </row>
